--- a/testqna.xlsx
+++ b/testqna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DC\Desktop\vscode_project\QnA_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDFD141-A5F4-4E44-86A6-C4279764C75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15B143A-0E39-4B4B-94F0-2794B98FD51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="2040" windowWidth="18210" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32430" yWindow="2685" windowWidth="18210" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1267,7 +1267,7 @@
   <dimension ref="A1:M198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1275,7 +1275,7 @@
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.5" customWidth="1"/>
-    <col min="7" max="7" width="8" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
@@ -1284,7 +1284,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" customHeight="1">
-      <c r="A1" s="19"/>
+      <c r="A1" s="19">
+        <v>1000</v>
+      </c>
+      <c r="B1">
+        <v>2000</v>
+      </c>
       <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1296,6 +1301,12 @@
       <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" thickBot="1">
+      <c r="A2">
+        <v>3000</v>
+      </c>
+      <c r="B2">
+        <v>4000</v>
+      </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1319,6 +1330,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="173.25" customHeight="1" thickBot="1">
+      <c r="A3">
+        <v>5000</v>
+      </c>
+      <c r="B3">
+        <v>6000</v>
+      </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9">
         <v>1</v>
@@ -1326,23 +1343,30 @@
       <c r="F3" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="20">
+        <v>2</v>
+      </c>
       <c r="H3" s="11">
         <v>5.4</v>
       </c>
       <c r="I3" s="20">
-        <f t="shared" ref="I3:I34" si="0">G3*H3</f>
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="19">
         <f>SUM(I3:I198)</f>
-        <v>0</v>
+        <v>140.99379999999996</v>
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:13" ht="138.75" customHeight="1" thickBot="1">
+      <c r="A4">
+        <v>7000</v>
+      </c>
+      <c r="B4">
+        <v>8000</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="7">
         <v>2</v>
@@ -1350,13 +1374,15 @@
       <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="21">
+        <v>3</v>
+      </c>
       <c r="H4" s="1">
         <v>6.27</v>
       </c>
       <c r="I4" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="I4:I34" si="0">G4*H4</f>
+        <v>18.809999999999999</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" t="s">
@@ -1366,6 +1392,12 @@
       <c r="M4" s="19"/>
     </row>
     <row r="5" spans="1:13" ht="155.25" customHeight="1" thickBot="1">
+      <c r="A5">
+        <v>9000</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="7">
         <v>3</v>
@@ -1373,13 +1405,15 @@
       <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="21">
+        <v>-1</v>
+      </c>
       <c r="H5" s="1">
         <v>3.24</v>
       </c>
       <c r="I5" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3.24</v>
       </c>
       <c r="J5" s="14"/>
       <c r="L5" s="19"/>
@@ -1392,13 +1426,15 @@
       <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="21">
+        <v>3</v>
+      </c>
       <c r="H6" s="1">
         <v>6.4889999999999999</v>
       </c>
       <c r="I6" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19.466999999999999</v>
       </c>
       <c r="J6" s="14"/>
       <c r="L6" s="19"/>
@@ -1414,13 +1450,15 @@
       <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="21">
+        <v>2</v>
+      </c>
       <c r="H7" s="1">
         <v>8.6519999999999992</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17.303999999999998</v>
       </c>
       <c r="J7" s="14"/>
     </row>
@@ -1432,13 +1470,15 @@
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="21"/>
+      <c r="G8" s="21">
+        <v>2</v>
+      </c>
       <c r="H8" s="1">
         <v>4.3259999999999996</v>
       </c>
       <c r="I8" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.6519999999999992</v>
       </c>
       <c r="J8" s="14"/>
     </row>
@@ -1453,13 +1493,15 @@
       <c r="F9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="21"/>
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
       <c r="H9" s="1">
         <v>2.379</v>
       </c>
       <c r="I9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.379</v>
       </c>
       <c r="J9" s="14"/>
     </row>
@@ -1471,13 +1513,15 @@
       <c r="F10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="21">
+        <v>2</v>
+      </c>
       <c r="H10" s="1">
         <v>3.24</v>
       </c>
       <c r="I10" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.48</v>
       </c>
       <c r="J10" s="14"/>
     </row>
@@ -1489,13 +1533,15 @@
       <c r="F11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="21">
+        <v>-2</v>
+      </c>
       <c r="H11" s="1">
         <v>2.38</v>
       </c>
       <c r="I11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.76</v>
       </c>
       <c r="J11" s="14"/>
     </row>
@@ -1507,13 +1553,15 @@
       <c r="F12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21">
+        <v>-3</v>
+      </c>
       <c r="H12" s="1">
         <v>4.32</v>
       </c>
       <c r="I12" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-12.96</v>
       </c>
       <c r="J12" s="14"/>
     </row>
@@ -1525,13 +1573,15 @@
       <c r="F13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="21"/>
+      <c r="G13" s="21">
+        <v>-2</v>
+      </c>
       <c r="H13" s="1">
         <v>3.24</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-6.48</v>
       </c>
       <c r="J13" s="14"/>
     </row>
@@ -1543,7 +1593,9 @@
       <c r="F14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="21">
+        <v>0</v>
+      </c>
       <c r="H14" s="1">
         <v>3.24</v>
       </c>
@@ -1561,13 +1613,15 @@
       <c r="F15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="21">
+        <v>2</v>
+      </c>
       <c r="H15" s="1">
         <v>3.89</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.78</v>
       </c>
       <c r="J15" s="14"/>
     </row>
@@ -1579,13 +1633,15 @@
       <c r="F16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="21">
+        <v>1</v>
+      </c>
       <c r="H16" s="1">
         <v>6.4889999999999999</v>
       </c>
       <c r="I16" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.4889999999999999</v>
       </c>
       <c r="J16" s="14"/>
     </row>
@@ -1597,13 +1653,15 @@
       <c r="F17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="21">
+        <v>4</v>
+      </c>
       <c r="H17" s="1">
         <v>8.65</v>
       </c>
       <c r="I17" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34.6</v>
       </c>
       <c r="J17" s="14"/>
     </row>
@@ -1615,13 +1673,15 @@
       <c r="F18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="21">
+        <v>1</v>
+      </c>
       <c r="H18" s="1">
         <v>4.32</v>
       </c>
       <c r="I18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="J18" s="14"/>
     </row>
@@ -1633,13 +1693,15 @@
       <c r="F19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="21">
+        <v>2</v>
+      </c>
       <c r="H19" s="1">
         <v>3.24</v>
       </c>
       <c r="I19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.48</v>
       </c>
       <c r="J19" s="14"/>
     </row>
@@ -1651,13 +1713,15 @@
       <c r="F20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="21">
+        <v>4</v>
+      </c>
       <c r="H20" s="1">
         <v>3.24</v>
       </c>
       <c r="I20" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.96</v>
       </c>
       <c r="J20" s="14"/>
     </row>
@@ -1669,13 +1733,15 @@
       <c r="F21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="21">
+        <v>2</v>
+      </c>
       <c r="H21" s="1">
         <v>4.32</v>
       </c>
       <c r="I21" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.64</v>
       </c>
       <c r="J21" s="14"/>
     </row>
@@ -1687,13 +1753,15 @@
       <c r="F22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="21">
+        <v>1</v>
+      </c>
       <c r="H22" s="1">
         <v>4.32</v>
       </c>
       <c r="I22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="J22" s="14"/>
     </row>
@@ -1705,13 +1773,15 @@
       <c r="F23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="21">
+        <v>3</v>
+      </c>
       <c r="H23" s="1">
         <v>3.68</v>
       </c>
       <c r="I23" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.040000000000001</v>
       </c>
       <c r="J23" s="14"/>
     </row>
@@ -1723,13 +1793,15 @@
       <c r="F24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="21">
+        <v>4</v>
+      </c>
       <c r="H24" s="1">
         <v>2.81</v>
       </c>
       <c r="I24" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.24</v>
       </c>
       <c r="J24" s="14"/>
     </row>
@@ -1741,13 +1813,15 @@
       <c r="F25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="21"/>
+      <c r="G25" s="21">
+        <v>-2</v>
+      </c>
       <c r="H25" s="1">
         <v>3.24</v>
       </c>
       <c r="I25" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-6.48</v>
       </c>
       <c r="J25" s="14"/>
     </row>
@@ -1759,13 +1833,15 @@
       <c r="F26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="21"/>
+      <c r="G26" s="21">
+        <v>-3</v>
+      </c>
       <c r="H26" s="1">
         <v>4.32</v>
       </c>
       <c r="I26" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-12.96</v>
       </c>
       <c r="J26" s="14"/>
     </row>
@@ -1777,13 +1853,15 @@
       <c r="F27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="21"/>
+      <c r="G27" s="21">
+        <v>-1</v>
+      </c>
       <c r="H27" s="1">
         <v>3.24</v>
       </c>
       <c r="I27" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3.24</v>
       </c>
       <c r="J27" s="14"/>
     </row>
@@ -1795,13 +1873,15 @@
       <c r="F28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="21"/>
+      <c r="G28" s="21">
+        <v>-2</v>
+      </c>
       <c r="H28" s="1">
         <v>2.5956000000000001</v>
       </c>
       <c r="I28" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5.1912000000000003</v>
       </c>
       <c r="J28" s="14"/>
     </row>
@@ -1813,13 +1893,15 @@
       <c r="F29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="21"/>
+      <c r="G29" s="21">
+        <v>3</v>
+      </c>
       <c r="H29" s="1">
         <v>2.38</v>
       </c>
       <c r="I29" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.14</v>
       </c>
       <c r="J29" s="14"/>
     </row>
@@ -1831,13 +1913,15 @@
       <c r="F30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21">
+        <v>-2</v>
+      </c>
       <c r="H30" s="1">
         <v>2.379</v>
       </c>
       <c r="I30" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.758</v>
       </c>
       <c r="J30" s="14"/>
     </row>
@@ -1849,13 +1933,15 @@
       <c r="F31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="21"/>
+      <c r="G31" s="21">
+        <v>2</v>
+      </c>
       <c r="H31" s="1">
         <v>3.2440000000000002</v>
       </c>
       <c r="I31" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.4880000000000004</v>
       </c>
       <c r="J31" s="14"/>
     </row>
@@ -1867,13 +1953,15 @@
       <c r="F32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="21"/>
+      <c r="G32" s="21">
+        <v>-1</v>
+      </c>
       <c r="H32" s="1">
         <v>4.3259999999999996</v>
       </c>
       <c r="I32" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.3259999999999996</v>
       </c>
       <c r="J32" s="14"/>
     </row>
